--- a/ALER_ASTE_BANDITE.xlsx
+++ b/ALER_ASTE_BANDITE.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\famal\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB37EEF-D701-4929-B7EC-1F36D0A4B48C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2ABB82-B82C-45F9-9AE8-988ACDFEAAD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{30AF0725-CEEE-404B-AD16-BF0A08E22822}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="10" r:id="rId1"/>
     <sheet name="capstone fig" sheetId="15" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="14" r:id="rId3"/>
+    <sheet name="ASTE APRILE 2023" sheetId="14" r:id="rId3"/>
     <sheet name="ottobre 2020" sheetId="13" r:id="rId4"/>
     <sheet name="aste marzo 2023" sheetId="11" r:id="rId5"/>
     <sheet name="forecast" sheetId="12" r:id="rId6"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3425" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4001" uniqueCount="651">
   <si>
     <t>vendita ALER SSG</t>
   </si>
@@ -1895,6 +1895,135 @@
   <si>
     <t xml:space="preserve">via gola </t>
   </si>
+  <si>
+    <t>027/23</t>
+  </si>
+  <si>
+    <t>VIA FILIPPO ABBIATI</t>
+  </si>
+  <si>
+    <t>028/23</t>
+  </si>
+  <si>
+    <t>'64</t>
+  </si>
+  <si>
+    <t>029/23</t>
+  </si>
+  <si>
+    <t>'203</t>
+  </si>
+  <si>
+    <t>030/23</t>
+  </si>
+  <si>
+    <t>VIA MAC MAHON</t>
+  </si>
+  <si>
+    <t>'119</t>
+  </si>
+  <si>
+    <t>031/23</t>
+  </si>
+  <si>
+    <t>VIA VAL SABBIA</t>
+  </si>
+  <si>
+    <t>032/23</t>
+  </si>
+  <si>
+    <t>033/23</t>
+  </si>
+  <si>
+    <t>034/23</t>
+  </si>
+  <si>
+    <t>VIA UGO BETTI</t>
+  </si>
+  <si>
+    <t>'145</t>
+  </si>
+  <si>
+    <t>035/23</t>
+  </si>
+  <si>
+    <t>'93</t>
+  </si>
+  <si>
+    <t>036/23</t>
+  </si>
+  <si>
+    <t>037/23</t>
+  </si>
+  <si>
+    <t>038/23</t>
+  </si>
+  <si>
+    <t>VIA ALEX VISCONTI</t>
+  </si>
+  <si>
+    <t>039/23</t>
+  </si>
+  <si>
+    <t>040/23</t>
+  </si>
+  <si>
+    <t>041/23</t>
+  </si>
+  <si>
+    <t>042/23</t>
+  </si>
+  <si>
+    <t>043/23</t>
+  </si>
+  <si>
+    <t>VIA LONGARONE</t>
+  </si>
+  <si>
+    <t>044/23</t>
+  </si>
+  <si>
+    <t>045/23</t>
+  </si>
+  <si>
+    <t>046/23</t>
+  </si>
+  <si>
+    <t>047/23</t>
+  </si>
+  <si>
+    <t>048/23</t>
+  </si>
+  <si>
+    <t>VIA RAFFAELLO GIOLLI</t>
+  </si>
+  <si>
+    <t>049/23</t>
+  </si>
+  <si>
+    <t>050/23</t>
+  </si>
+  <si>
+    <t>051/23</t>
+  </si>
+  <si>
+    <t>052/23</t>
+  </si>
+  <si>
+    <t>053/23</t>
+  </si>
+  <si>
+    <t>VIA SAVONA</t>
+  </si>
+  <si>
+    <t>'80</t>
+  </si>
+  <si>
+    <t>via baroni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">via saponaro </t>
+  </si>
 </sst>
 </file>
 
@@ -2012,7 +2141,7 @@
       <name val="Inherit"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2079,8 +2208,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE4D6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -2126,12 +2261,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFE1E1E1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFE1E1E1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFE1E1E1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2376,6 +2531,42 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="166" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2399,6 +2590,10 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2739,6 +2934,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFCE4D6"/>
       <color rgb="FFFF7C80"/>
     </mruColors>
   </colors>
@@ -2754,6 +2950,1623 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>289560</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 27">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" tgtFrame="_blank"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17E7ACC9-107D-BB01-E8CD-4012E912B8BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7315200" y="190500"/>
+          <a:ext cx="289560" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>403860</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 28">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3" tgtFrame="_blank"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{462DDD52-9987-63DE-5274-0CD88BE031A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7315200" y="853440"/>
+          <a:ext cx="289560" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>518160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Picture 29">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4" tgtFrame="_blank"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA1F241F-6956-E89A-66EE-3FF2BB5F0011}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7315200" y="1516380"/>
+          <a:ext cx="289560" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 30">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5" tgtFrame="_blank"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70D67721-CA78-19C6-E0CE-5CECE0F4DFC4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7315200" y="2179320"/>
+          <a:ext cx="289560" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>381000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Picture 31">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6" tgtFrame="_blank"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71C15D9A-ADCC-E23A-FB68-4A1A20945E81}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7315200" y="2659380"/>
+          <a:ext cx="289560" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>571500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>861060</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Picture 32">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7" tgtFrame="_blank"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C3E6E20-6688-8E92-570A-0D95D8A1663C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7315200" y="3139440"/>
+          <a:ext cx="289560" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Picture 33">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8" tgtFrame="_blank"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2FDC86D-9977-9F7C-23B3-4C5A7AE544B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7315200" y="4168140"/>
+          <a:ext cx="289560" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>434340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>723900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Picture 34">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9" tgtFrame="_blank"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE370128-1D70-9D0C-50FE-58D5787859D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7315200" y="4831080"/>
+          <a:ext cx="289560" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>914400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Picture 35">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10" tgtFrame="_blank"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45A3BFC3-66BD-9C00-27C5-E91A741715F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7315200" y="5311140"/>
+          <a:ext cx="289560" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>480060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Picture 36">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11" tgtFrame="_blank"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19271691-F8F7-03CA-5384-A3F04EA2DB8B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7315200" y="6522720"/>
+          <a:ext cx="289560" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>335280</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Picture 37">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12" tgtFrame="_blank"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93D78289-7F3F-AE05-09BF-FFBAE1A3B280}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7315200" y="7185660"/>
+          <a:ext cx="289560" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>891540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="Picture 38">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13" tgtFrame="_blank"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B6859F3-A608-C175-B472-7FFB10EDBDAE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7315200" y="8031480"/>
+          <a:ext cx="289560" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>457200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="Picture 39">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14" tgtFrame="_blank"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA60C989-A4CC-4F09-F0B0-1E29F026E6AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7315200" y="8511540"/>
+          <a:ext cx="289560" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>388620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>678180</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="Picture 40">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15" tgtFrame="_blank"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{001E6F44-E90A-3F7E-27BA-7AC9BCFDAC4C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7315200" y="9540240"/>
+          <a:ext cx="289560" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>320040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="Picture 41">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16" tgtFrame="_blank"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5AB5C22-B5E0-56BC-9746-714840324E9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7315200" y="10203180"/>
+          <a:ext cx="289560" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>434340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>723900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="Picture 42">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17" tgtFrame="_blank"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C86734CA-70CB-D11B-1EE0-ECC8945BA4D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7315200" y="10866120"/>
+          <a:ext cx="289560" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>548640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="Picture 43">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18" tgtFrame="_blank"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13B5F7AC-ACAA-CB20-2D89-73ACFC98E93B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7315200" y="11711940"/>
+          <a:ext cx="289560" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>480060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="Picture 44">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19" tgtFrame="_blank"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{001FB21C-3E6F-36D6-0846-263753345970}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7315200" y="12374880"/>
+          <a:ext cx="289560" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>594360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="Picture 45">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId20" tgtFrame="_blank"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE3F223E-C6CD-DC36-C8EC-DD7EB15A3C5D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7315200" y="13220700"/>
+          <a:ext cx="289560" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>449580</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="Picture 46">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21" tgtFrame="_blank"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C737D9BC-A623-1268-7386-CBDD573FE5AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7315200" y="14066520"/>
+          <a:ext cx="289560" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="Picture 47">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId22" tgtFrame="_blank"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFB716FB-AEF3-F90B-F167-7DD28EF666E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7315200" y="14912340"/>
+          <a:ext cx="289560" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="Picture 48">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId23" tgtFrame="_blank"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95CDF258-A6A8-5CBB-558D-AE52D60627FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7315200" y="15758160"/>
+          <a:ext cx="289560" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>289560</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="Picture 49">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId24" tgtFrame="_blank"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BCDAEBF-5992-7B5F-DA61-26B2CB9B44AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7315200" y="14455140"/>
+          <a:ext cx="289560" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>289560</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="Picture 50">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId25" tgtFrame="_blank"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45CB2371-B34A-84B1-F2C1-29A8DB00AE0D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7315200" y="15186660"/>
+          <a:ext cx="289560" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>289560</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="Picture 51">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId26" tgtFrame="_blank"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82D085CD-B346-B04F-D4E4-E46CA0BF90D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7315200" y="15918180"/>
+          <a:ext cx="289560" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>289560</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="Picture 52">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId27" tgtFrame="_blank"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6AF220C-3602-6E6F-CB56-731877FE3467}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7315200" y="16649700"/>
+          <a:ext cx="289560" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4618,7 +6431,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -8851,10 +10664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E9ECAB4-C5C2-4167-A9E4-8EF85BE06C0B}">
-  <dimension ref="A1:J688"/>
+  <dimension ref="A1:J697"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F705" sqref="F705"/>
+    <sheetView tabSelected="1" topLeftCell="A609" workbookViewId="0">
+      <selection activeCell="J701" sqref="J701"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -30879,8 +32692,296 @@
       <c r="I688" s="97">
         <v>50</v>
       </c>
-      <c r="J688" s="96">
+      <c r="J688" s="124">
         <v>1900</v>
+      </c>
+    </row>
+    <row r="689" spans="1:10">
+      <c r="A689" t="s">
+        <v>59</v>
+      </c>
+      <c r="B689" s="7">
+        <v>14</v>
+      </c>
+      <c r="C689" s="7">
+        <v>2.8</v>
+      </c>
+      <c r="D689" s="7">
+        <v>24</v>
+      </c>
+      <c r="E689" s="7">
+        <v>95608</v>
+      </c>
+      <c r="F689" s="11">
+        <v>317121</v>
+      </c>
+      <c r="G689" s="7">
+        <v>20133</v>
+      </c>
+      <c r="H689" s="66">
+        <v>44994</v>
+      </c>
+      <c r="I689" s="98">
+        <v>64</v>
+      </c>
+      <c r="J689" s="125">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="690" spans="1:10">
+      <c r="A690" t="s">
+        <v>37</v>
+      </c>
+      <c r="B690" s="7">
+        <v>46</v>
+      </c>
+      <c r="C690" s="7">
+        <v>5.4</v>
+      </c>
+      <c r="D690" s="7">
+        <v>42</v>
+      </c>
+      <c r="E690" s="7">
+        <v>90915</v>
+      </c>
+      <c r="F690" s="11">
+        <v>176300</v>
+      </c>
+      <c r="G690" s="7">
+        <v>20138</v>
+      </c>
+      <c r="H690" s="66">
+        <v>44994</v>
+      </c>
+      <c r="I690" s="98">
+        <v>75</v>
+      </c>
+      <c r="J690" s="125">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="691" spans="1:10">
+      <c r="A691" t="s">
+        <v>37</v>
+      </c>
+      <c r="B691" s="7">
+        <v>2</v>
+      </c>
+      <c r="C691" s="7">
+        <v>5.4</v>
+      </c>
+      <c r="D691" s="7">
+        <v>42</v>
+      </c>
+      <c r="E691" s="7">
+        <v>87278</v>
+      </c>
+      <c r="F691" s="11">
+        <v>166784</v>
+      </c>
+      <c r="G691" s="7">
+        <v>20138</v>
+      </c>
+      <c r="H691" s="66">
+        <v>44994</v>
+      </c>
+      <c r="I691" s="98">
+        <v>72</v>
+      </c>
+      <c r="J691" s="125">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="692" spans="1:10">
+      <c r="A692" t="s">
+        <v>540</v>
+      </c>
+      <c r="B692" s="7">
+        <v>2</v>
+      </c>
+      <c r="C692" s="7">
+        <v>7.7</v>
+      </c>
+      <c r="D692" s="7">
+        <v>32</v>
+      </c>
+      <c r="E692" s="7">
+        <v>85120</v>
+      </c>
+      <c r="F692" s="11">
+        <v>133770</v>
+      </c>
+      <c r="G692" s="7">
+        <v>20157</v>
+      </c>
+      <c r="H692" s="66">
+        <v>44994</v>
+      </c>
+      <c r="I692" s="98">
+        <v>76</v>
+      </c>
+      <c r="J692" s="125">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="693" spans="1:10">
+      <c r="A693" t="s">
+        <v>515</v>
+      </c>
+      <c r="B693" s="7">
+        <v>5</v>
+      </c>
+      <c r="C693" s="7">
+        <v>9.5</v>
+      </c>
+      <c r="D693" s="7">
+        <v>38</v>
+      </c>
+      <c r="E693" s="7">
+        <v>94613</v>
+      </c>
+      <c r="F693" s="11">
+        <v>161200</v>
+      </c>
+      <c r="G693" s="7">
+        <v>20152</v>
+      </c>
+      <c r="H693" s="66">
+        <v>44994</v>
+      </c>
+      <c r="I693" s="98">
+        <v>87</v>
+      </c>
+      <c r="J693" s="125">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="694" spans="1:10">
+      <c r="A694" t="s">
+        <v>649</v>
+      </c>
+      <c r="B694" s="7">
+        <v>69</v>
+      </c>
+      <c r="C694" s="7">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="D694" s="7">
+        <v>46</v>
+      </c>
+      <c r="E694" s="7">
+        <v>99680</v>
+      </c>
+      <c r="F694" s="11">
+        <v>172000</v>
+      </c>
+      <c r="G694" s="7">
+        <v>20142</v>
+      </c>
+      <c r="H694" s="66">
+        <v>44994</v>
+      </c>
+      <c r="I694" s="98">
+        <v>89</v>
+      </c>
+      <c r="J694" s="125">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="695" spans="1:10">
+      <c r="A695" t="s">
+        <v>64</v>
+      </c>
+      <c r="B695" s="7">
+        <v>24</v>
+      </c>
+      <c r="C695" s="7">
+        <v>7.5</v>
+      </c>
+      <c r="D695" s="7">
+        <v>39</v>
+      </c>
+      <c r="E695" s="7">
+        <v>105280</v>
+      </c>
+      <c r="F695" s="11">
+        <v>201000</v>
+      </c>
+      <c r="G695" s="7">
+        <v>20142</v>
+      </c>
+      <c r="H695" s="66">
+        <v>44994</v>
+      </c>
+      <c r="I695" s="98">
+        <v>94</v>
+      </c>
+      <c r="J695" s="125">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="696" spans="1:10">
+      <c r="A696" t="s">
+        <v>650</v>
+      </c>
+      <c r="B696" s="7">
+        <v>24</v>
+      </c>
+      <c r="C696" s="7">
+        <v>7.5</v>
+      </c>
+      <c r="D696" s="7">
+        <v>39</v>
+      </c>
+      <c r="E696" s="7">
+        <v>103400</v>
+      </c>
+      <c r="F696" s="11">
+        <v>160000</v>
+      </c>
+      <c r="G696" s="7">
+        <v>20142</v>
+      </c>
+      <c r="H696" s="66">
+        <v>44994</v>
+      </c>
+      <c r="I696" s="98">
+        <v>92</v>
+      </c>
+      <c r="J696" s="125">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="697" spans="1:10">
+      <c r="A697" t="s">
+        <v>56</v>
+      </c>
+      <c r="B697" s="7">
+        <v>113</v>
+      </c>
+      <c r="C697" s="7">
+        <v>8</v>
+      </c>
+      <c r="D697" s="7">
+        <v>39</v>
+      </c>
+      <c r="E697" s="7">
+        <v>107880</v>
+      </c>
+      <c r="F697" s="11">
+        <v>175888</v>
+      </c>
+      <c r="G697" s="7">
+        <v>20161</v>
+      </c>
+      <c r="H697" s="66">
+        <v>44994</v>
+      </c>
+      <c r="I697" s="98">
+        <v>87</v>
+      </c>
+      <c r="J697" s="125">
+        <v>2100</v>
       </c>
     </row>
   </sheetData>
@@ -38955,22 +41056,2441 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4244C4C3-A7BD-4154-A454-178EC3152E2D}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M66"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="L33" sqref="L33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="4" width="26.88671875" customWidth="1"/>
+    <col min="12" max="12" width="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15" thickBot="1"/>
+    <row r="2" spans="1:13" ht="20.399999999999999">
+      <c r="A2" s="104" t="s">
+        <v>608</v>
+      </c>
+      <c r="B2" s="105" t="s">
+        <v>255</v>
+      </c>
+      <c r="C2" s="105" t="s">
+        <v>217</v>
+      </c>
+      <c r="D2" s="107" t="s">
+        <v>609</v>
+      </c>
+      <c r="E2" s="105" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2" s="105">
+        <v>2</v>
+      </c>
+      <c r="G2" s="105">
+        <v>57</v>
+      </c>
+      <c r="H2" s="105" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" s="105" t="s">
+        <v>101</v>
+      </c>
+      <c r="J2" s="105" t="s">
+        <v>76</v>
+      </c>
+      <c r="K2" s="105" t="s">
+        <v>77</v>
+      </c>
+      <c r="L2" s="108">
+        <v>78247</v>
+      </c>
+      <c r="M2" s="106"/>
+    </row>
+    <row r="3" spans="1:13" ht="20.399999999999999">
+      <c r="A3" s="109" t="s">
+        <v>610</v>
+      </c>
+      <c r="B3" s="110" t="s">
+        <v>255</v>
+      </c>
+      <c r="C3" s="110" t="s">
+        <v>217</v>
+      </c>
+      <c r="D3" s="112" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="110" t="s">
+        <v>611</v>
+      </c>
+      <c r="F3" s="110">
+        <v>3</v>
+      </c>
+      <c r="G3" s="110">
+        <v>79</v>
+      </c>
+      <c r="H3" s="110" t="s">
+        <v>80</v>
+      </c>
+      <c r="I3" s="110" t="s">
+        <v>75</v>
+      </c>
+      <c r="J3" s="110" t="s">
+        <v>76</v>
+      </c>
+      <c r="K3" s="110" t="s">
+        <v>77</v>
+      </c>
+      <c r="L3" s="113">
+        <v>108823</v>
+      </c>
+      <c r="M3" s="111"/>
+    </row>
+    <row r="4" spans="1:13" ht="20.399999999999999">
+      <c r="A4" s="72" t="s">
+        <v>612</v>
+      </c>
+      <c r="B4" s="73" t="s">
+        <v>255</v>
+      </c>
+      <c r="C4" s="73" t="s">
+        <v>217</v>
+      </c>
+      <c r="D4" s="75" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" s="73" t="s">
+        <v>613</v>
+      </c>
+      <c r="F4" s="73">
+        <v>2</v>
+      </c>
+      <c r="G4" s="73">
+        <v>72</v>
+      </c>
+      <c r="H4" s="73" t="s">
+        <v>74</v>
+      </c>
+      <c r="I4" s="73" t="s">
+        <v>75</v>
+      </c>
+      <c r="J4" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="K4" s="73" t="s">
+        <v>77</v>
+      </c>
+      <c r="L4" s="76">
+        <v>83520</v>
+      </c>
+      <c r="M4" s="74"/>
+    </row>
+    <row r="5" spans="1:13" ht="20.399999999999999">
+      <c r="A5" s="109" t="s">
+        <v>614</v>
+      </c>
+      <c r="B5" s="110" t="s">
+        <v>225</v>
+      </c>
+      <c r="C5" s="110" t="s">
+        <v>217</v>
+      </c>
+      <c r="D5" s="112" t="s">
+        <v>615</v>
+      </c>
+      <c r="E5" s="110" t="s">
+        <v>616</v>
+      </c>
+      <c r="F5" s="110">
+        <v>2</v>
+      </c>
+      <c r="G5" s="110">
+        <v>52</v>
+      </c>
+      <c r="H5" s="110" t="s">
+        <v>74</v>
+      </c>
+      <c r="I5" s="110" t="s">
+        <v>101</v>
+      </c>
+      <c r="J5" s="110" t="s">
+        <v>76</v>
+      </c>
+      <c r="K5" s="110" t="s">
+        <v>77</v>
+      </c>
+      <c r="L5" s="113">
+        <v>76570</v>
+      </c>
+      <c r="M5" s="111"/>
+    </row>
+    <row r="6" spans="1:13" ht="20.399999999999999">
+      <c r="A6" s="72" t="s">
+        <v>617</v>
+      </c>
+      <c r="B6" s="73" t="s">
+        <v>225</v>
+      </c>
+      <c r="C6" s="73" t="s">
+        <v>217</v>
+      </c>
+      <c r="D6" s="75" t="s">
+        <v>618</v>
+      </c>
+      <c r="E6" s="73" t="s">
+        <v>363</v>
+      </c>
+      <c r="F6" s="73">
+        <v>2</v>
+      </c>
+      <c r="G6" s="73">
+        <v>67</v>
+      </c>
+      <c r="H6" s="73" t="s">
+        <v>80</v>
+      </c>
+      <c r="I6" s="73" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" s="73" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" s="76">
+        <v>98658</v>
+      </c>
+      <c r="M6" s="74"/>
+    </row>
+    <row r="7" spans="1:13" ht="20.399999999999999">
+      <c r="A7" s="109" t="s">
+        <v>619</v>
+      </c>
+      <c r="B7" s="110" t="s">
+        <v>225</v>
+      </c>
+      <c r="C7" s="110" t="s">
+        <v>217</v>
+      </c>
+      <c r="D7" s="112" t="s">
+        <v>373</v>
+      </c>
+      <c r="E7" s="110" t="s">
+        <v>89</v>
+      </c>
+      <c r="F7" s="110">
+        <v>2</v>
+      </c>
+      <c r="G7" s="110">
+        <v>70</v>
+      </c>
+      <c r="H7" s="110" t="s">
+        <v>80</v>
+      </c>
+      <c r="I7" s="110" t="s">
+        <v>75</v>
+      </c>
+      <c r="J7" s="110" t="s">
+        <v>76</v>
+      </c>
+      <c r="K7" s="110" t="s">
+        <v>77</v>
+      </c>
+      <c r="L7" s="113">
+        <v>93100</v>
+      </c>
+      <c r="M7" s="111"/>
+    </row>
+    <row r="8" spans="1:13" ht="20.399999999999999">
+      <c r="A8" s="72" t="s">
+        <v>620</v>
+      </c>
+      <c r="B8" s="73" t="s">
+        <v>255</v>
+      </c>
+      <c r="C8" s="73" t="s">
+        <v>217</v>
+      </c>
+      <c r="D8" s="75" t="s">
+        <v>110</v>
+      </c>
+      <c r="E8" s="73" t="s">
+        <v>292</v>
+      </c>
+      <c r="F8" s="73">
+        <v>3</v>
+      </c>
+      <c r="G8" s="73">
+        <v>87</v>
+      </c>
+      <c r="H8" s="73" t="s">
+        <v>80</v>
+      </c>
+      <c r="I8" s="73" t="s">
+        <v>101</v>
+      </c>
+      <c r="J8" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="K8" s="73" t="s">
+        <v>77</v>
+      </c>
+      <c r="L8" s="76">
+        <v>119843</v>
+      </c>
+      <c r="M8" s="74"/>
+    </row>
+    <row r="9" spans="1:13" ht="20.399999999999999">
+      <c r="A9" s="109" t="s">
+        <v>621</v>
+      </c>
+      <c r="B9" s="110" t="s">
+        <v>225</v>
+      </c>
+      <c r="C9" s="110" t="s">
+        <v>217</v>
+      </c>
+      <c r="D9" s="112" t="s">
+        <v>622</v>
+      </c>
+      <c r="E9" s="110" t="s">
+        <v>623</v>
+      </c>
+      <c r="F9" s="110">
+        <v>2</v>
+      </c>
+      <c r="G9" s="110">
+        <v>67</v>
+      </c>
+      <c r="H9" s="110" t="s">
+        <v>80</v>
+      </c>
+      <c r="I9" s="110" t="s">
+        <v>75</v>
+      </c>
+      <c r="J9" s="110" t="s">
+        <v>76</v>
+      </c>
+      <c r="K9" s="110" t="s">
+        <v>77</v>
+      </c>
+      <c r="L9" s="113">
+        <v>100249</v>
+      </c>
+      <c r="M9" s="111"/>
+    </row>
+    <row r="10" spans="1:13" ht="28.8">
+      <c r="A10" s="72" t="s">
+        <v>624</v>
+      </c>
+      <c r="B10" s="73" t="s">
+        <v>225</v>
+      </c>
+      <c r="C10" s="73" t="s">
+        <v>217</v>
+      </c>
+      <c r="D10" s="75" t="s">
+        <v>121</v>
+      </c>
+      <c r="E10" s="73" t="s">
+        <v>625</v>
+      </c>
+      <c r="F10" s="73">
+        <v>3</v>
+      </c>
+      <c r="G10" s="73">
+        <v>89</v>
+      </c>
+      <c r="H10" s="73" t="s">
+        <v>80</v>
+      </c>
+      <c r="I10" s="73" t="s">
+        <v>146</v>
+      </c>
+      <c r="J10" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="K10" s="73" t="s">
+        <v>77</v>
+      </c>
+      <c r="L10" s="76">
+        <v>110360</v>
+      </c>
+      <c r="M10" s="74"/>
+    </row>
+    <row r="11" spans="1:13" ht="20.399999999999999">
+      <c r="A11" s="109" t="s">
+        <v>626</v>
+      </c>
+      <c r="B11" s="110" t="s">
+        <v>282</v>
+      </c>
+      <c r="C11" s="110" t="s">
+        <v>283</v>
+      </c>
+      <c r="D11" s="112" t="s">
+        <v>284</v>
+      </c>
+      <c r="E11" s="110" t="s">
+        <v>87</v>
+      </c>
+      <c r="F11" s="110">
+        <v>3</v>
+      </c>
+      <c r="G11" s="110">
+        <v>83</v>
+      </c>
+      <c r="H11" s="110" t="s">
+        <v>80</v>
+      </c>
+      <c r="I11" s="110" t="s">
+        <v>101</v>
+      </c>
+      <c r="J11" s="110" t="s">
+        <v>76</v>
+      </c>
+      <c r="K11" s="110" t="s">
+        <v>77</v>
+      </c>
+      <c r="L11" s="113">
+        <v>106448</v>
+      </c>
+      <c r="M11" s="111"/>
+    </row>
+    <row r="12" spans="1:13" ht="20.399999999999999">
+      <c r="A12" s="72" t="s">
+        <v>627</v>
+      </c>
+      <c r="B12" s="73" t="s">
+        <v>282</v>
+      </c>
+      <c r="C12" s="73" t="s">
+        <v>283</v>
+      </c>
+      <c r="D12" s="75" t="s">
+        <v>385</v>
+      </c>
+      <c r="E12" s="73" t="s">
+        <v>125</v>
+      </c>
+      <c r="F12" s="73">
+        <v>3</v>
+      </c>
+      <c r="G12" s="73">
+        <v>90</v>
+      </c>
+      <c r="H12" s="73" t="s">
+        <v>80</v>
+      </c>
+      <c r="I12" s="73" t="s">
+        <v>75</v>
+      </c>
+      <c r="J12" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="K12" s="73" t="s">
+        <v>77</v>
+      </c>
+      <c r="L12" s="76">
+        <v>97200</v>
+      </c>
+      <c r="M12" s="74"/>
+    </row>
+    <row r="13" spans="1:13" ht="20.399999999999999">
+      <c r="A13" s="109" t="s">
+        <v>628</v>
+      </c>
+      <c r="B13" s="110" t="s">
+        <v>225</v>
+      </c>
+      <c r="C13" s="110" t="s">
+        <v>217</v>
+      </c>
+      <c r="D13" s="112" t="s">
+        <v>629</v>
+      </c>
+      <c r="E13" s="110" t="s">
+        <v>103</v>
+      </c>
+      <c r="F13" s="110">
+        <v>2</v>
+      </c>
+      <c r="G13" s="110">
+        <v>62</v>
+      </c>
+      <c r="H13" s="110" t="s">
+        <v>80</v>
+      </c>
+      <c r="I13" s="110" t="s">
+        <v>101</v>
+      </c>
+      <c r="J13" s="110" t="s">
+        <v>76</v>
+      </c>
+      <c r="K13" s="110" t="s">
+        <v>77</v>
+      </c>
+      <c r="L13" s="113">
+        <v>92768</v>
+      </c>
+      <c r="M13" s="111"/>
+    </row>
+    <row r="14" spans="1:13" ht="28.8">
+      <c r="A14" s="72" t="s">
+        <v>630</v>
+      </c>
+      <c r="B14" s="73" t="s">
+        <v>282</v>
+      </c>
+      <c r="C14" s="73" t="s">
+        <v>306</v>
+      </c>
+      <c r="D14" s="75" t="s">
+        <v>395</v>
+      </c>
+      <c r="E14" s="73" t="s">
+        <v>398</v>
+      </c>
+      <c r="F14" s="73">
+        <v>2</v>
+      </c>
+      <c r="G14" s="73">
+        <v>70</v>
+      </c>
+      <c r="H14" s="73" t="s">
+        <v>74</v>
+      </c>
+      <c r="I14" s="73" t="s">
+        <v>101</v>
+      </c>
+      <c r="J14" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="K14" s="73" t="s">
+        <v>77</v>
+      </c>
+      <c r="L14" s="76">
+        <v>49087</v>
+      </c>
+      <c r="M14" s="74"/>
+    </row>
+    <row r="15" spans="1:13" ht="20.399999999999999">
+      <c r="A15" s="109" t="s">
+        <v>631</v>
+      </c>
+      <c r="B15" s="110" t="s">
+        <v>282</v>
+      </c>
+      <c r="C15" s="110" t="s">
+        <v>306</v>
+      </c>
+      <c r="D15" s="112" t="s">
+        <v>400</v>
+      </c>
+      <c r="E15" s="110" t="s">
+        <v>363</v>
+      </c>
+      <c r="F15" s="110">
+        <v>2</v>
+      </c>
+      <c r="G15" s="110">
+        <v>57</v>
+      </c>
+      <c r="H15" s="110" t="s">
+        <v>74</v>
+      </c>
+      <c r="I15" s="110" t="s">
+        <v>146</v>
+      </c>
+      <c r="J15" s="110" t="s">
+        <v>76</v>
+      </c>
+      <c r="K15" s="110" t="s">
+        <v>77</v>
+      </c>
+      <c r="L15" s="113">
+        <v>39971</v>
+      </c>
+      <c r="M15" s="111"/>
+    </row>
+    <row r="16" spans="1:13" ht="20.399999999999999">
+      <c r="A16" s="72" t="s">
+        <v>632</v>
+      </c>
+      <c r="B16" s="73" t="s">
+        <v>282</v>
+      </c>
+      <c r="C16" s="73" t="s">
+        <v>306</v>
+      </c>
+      <c r="D16" s="75" t="s">
+        <v>307</v>
+      </c>
+      <c r="E16" s="73" t="s">
+        <v>113</v>
+      </c>
+      <c r="F16" s="73">
+        <v>4</v>
+      </c>
+      <c r="G16" s="73">
+        <v>107</v>
+      </c>
+      <c r="H16" s="73" t="s">
+        <v>80</v>
+      </c>
+      <c r="I16" s="73" t="s">
+        <v>146</v>
+      </c>
+      <c r="J16" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="K16" s="73" t="s">
+        <v>77</v>
+      </c>
+      <c r="L16" s="76">
+        <v>76739</v>
+      </c>
+      <c r="M16" s="74"/>
+    </row>
+    <row r="17" spans="1:13" ht="20.399999999999999">
+      <c r="A17" s="109" t="s">
+        <v>633</v>
+      </c>
+      <c r="B17" s="110" t="s">
+        <v>282</v>
+      </c>
+      <c r="C17" s="110" t="s">
+        <v>306</v>
+      </c>
+      <c r="D17" s="112" t="s">
+        <v>455</v>
+      </c>
+      <c r="E17" s="110" t="s">
+        <v>263</v>
+      </c>
+      <c r="F17" s="110">
+        <v>4</v>
+      </c>
+      <c r="G17" s="110">
+        <v>102</v>
+      </c>
+      <c r="H17" s="110" t="s">
+        <v>80</v>
+      </c>
+      <c r="I17" s="110" t="s">
+        <v>101</v>
+      </c>
+      <c r="J17" s="110" t="s">
+        <v>76</v>
+      </c>
+      <c r="K17" s="110" t="s">
+        <v>77</v>
+      </c>
+      <c r="L17" s="113">
+        <v>60083</v>
+      </c>
+      <c r="M17" s="111"/>
+    </row>
+    <row r="18" spans="1:13" ht="20.399999999999999">
+      <c r="A18" s="72" t="s">
+        <v>634</v>
+      </c>
+      <c r="B18" s="73" t="s">
+        <v>225</v>
+      </c>
+      <c r="C18" s="73" t="s">
+        <v>217</v>
+      </c>
+      <c r="D18" s="75" t="s">
+        <v>635</v>
+      </c>
+      <c r="E18" s="73" t="s">
+        <v>145</v>
+      </c>
+      <c r="F18" s="73">
+        <v>4</v>
+      </c>
+      <c r="G18" s="73">
+        <v>101</v>
+      </c>
+      <c r="H18" s="73" t="s">
+        <v>80</v>
+      </c>
+      <c r="I18" s="73" t="s">
+        <v>75</v>
+      </c>
+      <c r="J18" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="K18" s="73" t="s">
+        <v>77</v>
+      </c>
+      <c r="L18" s="76">
+        <v>115519</v>
+      </c>
+      <c r="M18" s="74"/>
+    </row>
+    <row r="19" spans="1:13" ht="20.399999999999999">
+      <c r="A19" s="109" t="s">
+        <v>636</v>
+      </c>
+      <c r="B19" s="110" t="s">
+        <v>282</v>
+      </c>
+      <c r="C19" s="110" t="s">
+        <v>306</v>
+      </c>
+      <c r="D19" s="112" t="s">
+        <v>455</v>
+      </c>
+      <c r="E19" s="110" t="s">
+        <v>148</v>
+      </c>
+      <c r="F19" s="110">
+        <v>4</v>
+      </c>
+      <c r="G19" s="110">
+        <v>122</v>
+      </c>
+      <c r="H19" s="110" t="s">
+        <v>80</v>
+      </c>
+      <c r="I19" s="110" t="s">
+        <v>75</v>
+      </c>
+      <c r="J19" s="110" t="s">
+        <v>76</v>
+      </c>
+      <c r="K19" s="110" t="s">
+        <v>77</v>
+      </c>
+      <c r="L19" s="113">
+        <v>76997</v>
+      </c>
+      <c r="M19" s="111"/>
+    </row>
+    <row r="20" spans="1:13" ht="20.399999999999999">
+      <c r="A20" s="72" t="s">
+        <v>637</v>
+      </c>
+      <c r="B20" s="73" t="s">
+        <v>294</v>
+      </c>
+      <c r="C20" s="73" t="s">
+        <v>324</v>
+      </c>
+      <c r="D20" s="75" t="s">
+        <v>325</v>
+      </c>
+      <c r="E20" s="73" t="s">
+        <v>326</v>
+      </c>
+      <c r="F20" s="73">
+        <v>5</v>
+      </c>
+      <c r="G20" s="73">
+        <v>139</v>
+      </c>
+      <c r="H20" s="73" t="s">
+        <v>80</v>
+      </c>
+      <c r="I20" s="73" t="s">
+        <v>99</v>
+      </c>
+      <c r="J20" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="K20" s="73" t="s">
+        <v>77</v>
+      </c>
+      <c r="L20" s="76">
+        <v>106069</v>
+      </c>
+      <c r="M20" s="74"/>
+    </row>
+    <row r="21" spans="1:13" ht="20.399999999999999">
+      <c r="A21" s="109" t="s">
+        <v>638</v>
+      </c>
+      <c r="B21" s="110" t="s">
+        <v>294</v>
+      </c>
+      <c r="C21" s="110" t="s">
+        <v>324</v>
+      </c>
+      <c r="D21" s="112" t="s">
+        <v>325</v>
+      </c>
+      <c r="E21" s="110" t="s">
+        <v>326</v>
+      </c>
+      <c r="F21" s="110">
+        <v>4</v>
+      </c>
+      <c r="G21" s="110">
+        <v>114</v>
+      </c>
+      <c r="H21" s="110" t="s">
+        <v>80</v>
+      </c>
+      <c r="I21" s="110" t="s">
+        <v>99</v>
+      </c>
+      <c r="J21" s="110" t="s">
+        <v>76</v>
+      </c>
+      <c r="K21" s="110" t="s">
+        <v>77</v>
+      </c>
+      <c r="L21" s="113">
+        <v>100776</v>
+      </c>
+      <c r="M21" s="111"/>
+    </row>
+    <row r="22" spans="1:13" ht="20.399999999999999">
+      <c r="A22" s="72" t="s">
+        <v>639</v>
+      </c>
+      <c r="B22" s="73" t="s">
+        <v>294</v>
+      </c>
+      <c r="C22" s="73" t="s">
+        <v>324</v>
+      </c>
+      <c r="D22" s="75" t="s">
+        <v>325</v>
+      </c>
+      <c r="E22" s="73" t="s">
+        <v>326</v>
+      </c>
+      <c r="F22" s="73">
+        <v>4</v>
+      </c>
+      <c r="G22" s="73">
+        <v>114</v>
+      </c>
+      <c r="H22" s="73" t="s">
+        <v>80</v>
+      </c>
+      <c r="I22" s="73" t="s">
+        <v>109</v>
+      </c>
+      <c r="J22" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="K22" s="73" t="s">
+        <v>77</v>
+      </c>
+      <c r="L22" s="76">
+        <v>100776</v>
+      </c>
+      <c r="M22" s="74"/>
+    </row>
+    <row r="23" spans="1:13" ht="20.399999999999999">
+      <c r="A23" s="109" t="s">
+        <v>640</v>
+      </c>
+      <c r="B23" s="110" t="s">
+        <v>225</v>
+      </c>
+      <c r="C23" s="110" t="s">
+        <v>217</v>
+      </c>
+      <c r="D23" s="112" t="s">
+        <v>641</v>
+      </c>
+      <c r="E23" s="110" t="s">
+        <v>369</v>
+      </c>
+      <c r="F23" s="110">
+        <v>4</v>
+      </c>
+      <c r="G23" s="110">
+        <v>102</v>
+      </c>
+      <c r="H23" s="110" t="s">
+        <v>80</v>
+      </c>
+      <c r="I23" s="110" t="s">
+        <v>99</v>
+      </c>
+      <c r="J23" s="110" t="s">
+        <v>76</v>
+      </c>
+      <c r="K23" s="110" t="s">
+        <v>77</v>
+      </c>
+      <c r="L23" s="114">
+        <v>173049</v>
+      </c>
+      <c r="M23" s="115"/>
+    </row>
+    <row r="24" spans="1:13" ht="20.399999999999999">
+      <c r="A24" s="72" t="s">
+        <v>640</v>
+      </c>
+      <c r="B24" s="73" t="s">
+        <v>225</v>
+      </c>
+      <c r="C24" s="73" t="s">
+        <v>217</v>
+      </c>
+      <c r="D24" s="75" t="s">
+        <v>641</v>
+      </c>
+      <c r="E24" s="73" t="s">
+        <v>369</v>
+      </c>
+      <c r="F24" s="73">
+        <v>0</v>
+      </c>
+      <c r="G24" s="73">
+        <v>14</v>
+      </c>
+      <c r="H24" s="73" t="s">
+        <v>74</v>
+      </c>
+      <c r="I24" s="73" t="s">
+        <v>74</v>
+      </c>
+      <c r="J24" s="73" t="s">
+        <v>440</v>
+      </c>
+      <c r="K24" s="73" t="s">
+        <v>77</v>
+      </c>
+      <c r="L24" s="114"/>
+      <c r="M24" s="115"/>
+    </row>
+    <row r="25" spans="1:13" ht="20.399999999999999">
+      <c r="A25" s="109" t="s">
+        <v>642</v>
+      </c>
+      <c r="B25" s="110" t="s">
+        <v>255</v>
+      </c>
+      <c r="C25" s="110" t="s">
+        <v>217</v>
+      </c>
+      <c r="D25" s="112" t="s">
+        <v>468</v>
+      </c>
+      <c r="E25" s="110" t="s">
+        <v>326</v>
+      </c>
+      <c r="F25" s="110">
+        <v>4</v>
+      </c>
+      <c r="G25" s="110">
+        <v>119</v>
+      </c>
+      <c r="H25" s="110" t="s">
+        <v>80</v>
+      </c>
+      <c r="I25" s="110" t="s">
+        <v>75</v>
+      </c>
+      <c r="J25" s="110" t="s">
+        <v>76</v>
+      </c>
+      <c r="K25" s="110" t="s">
+        <v>77</v>
+      </c>
+      <c r="L25" s="114">
+        <v>155360</v>
+      </c>
+      <c r="M25" s="115"/>
+    </row>
+    <row r="26" spans="1:13" ht="20.399999999999999">
+      <c r="A26" s="72" t="s">
+        <v>642</v>
+      </c>
+      <c r="B26" s="73" t="s">
+        <v>255</v>
+      </c>
+      <c r="C26" s="73" t="s">
+        <v>217</v>
+      </c>
+      <c r="D26" s="75" t="s">
+        <v>468</v>
+      </c>
+      <c r="E26" s="73" t="s">
+        <v>326</v>
+      </c>
+      <c r="F26" s="73">
+        <v>0</v>
+      </c>
+      <c r="G26" s="73">
+        <v>14</v>
+      </c>
+      <c r="H26" s="73" t="s">
+        <v>74</v>
+      </c>
+      <c r="I26" s="73" t="s">
+        <v>74</v>
+      </c>
+      <c r="J26" s="73" t="s">
+        <v>440</v>
+      </c>
+      <c r="K26" s="73" t="s">
+        <v>77</v>
+      </c>
+      <c r="L26" s="114"/>
+      <c r="M26" s="115"/>
+    </row>
+    <row r="27" spans="1:13" ht="20.399999999999999">
+      <c r="A27" s="109" t="s">
+        <v>643</v>
+      </c>
+      <c r="B27" s="110" t="s">
+        <v>255</v>
+      </c>
+      <c r="C27" s="110" t="s">
+        <v>217</v>
+      </c>
+      <c r="D27" s="112" t="s">
+        <v>336</v>
+      </c>
+      <c r="E27" s="110" t="s">
+        <v>111</v>
+      </c>
+      <c r="F27" s="110">
+        <v>4</v>
+      </c>
+      <c r="G27" s="110">
+        <v>98</v>
+      </c>
+      <c r="H27" s="110" t="s">
+        <v>80</v>
+      </c>
+      <c r="I27" s="110" t="s">
+        <v>75</v>
+      </c>
+      <c r="J27" s="110" t="s">
+        <v>76</v>
+      </c>
+      <c r="K27" s="110" t="s">
+        <v>77</v>
+      </c>
+      <c r="L27" s="114">
+        <v>130520</v>
+      </c>
+      <c r="M27" s="115"/>
+    </row>
+    <row r="28" spans="1:13" ht="20.399999999999999">
+      <c r="A28" s="72" t="s">
+        <v>643</v>
+      </c>
+      <c r="B28" s="73" t="s">
+        <v>255</v>
+      </c>
+      <c r="C28" s="73" t="s">
+        <v>217</v>
+      </c>
+      <c r="D28" s="75" t="s">
+        <v>336</v>
+      </c>
+      <c r="E28" s="73" t="s">
+        <v>111</v>
+      </c>
+      <c r="F28" s="73">
+        <v>0</v>
+      </c>
+      <c r="G28" s="73">
+        <v>15</v>
+      </c>
+      <c r="H28" s="73" t="s">
+        <v>74</v>
+      </c>
+      <c r="I28" s="73" t="s">
+        <v>74</v>
+      </c>
+      <c r="J28" s="73" t="s">
+        <v>440</v>
+      </c>
+      <c r="K28" s="73" t="s">
+        <v>77</v>
+      </c>
+      <c r="L28" s="114"/>
+      <c r="M28" s="115"/>
+    </row>
+    <row r="29" spans="1:13" ht="20.399999999999999">
+      <c r="A29" s="109" t="s">
+        <v>644</v>
+      </c>
+      <c r="B29" s="110" t="s">
+        <v>255</v>
+      </c>
+      <c r="C29" s="110" t="s">
+        <v>217</v>
+      </c>
+      <c r="D29" s="112" t="s">
+        <v>336</v>
+      </c>
+      <c r="E29" s="110" t="s">
+        <v>252</v>
+      </c>
+      <c r="F29" s="110">
+        <v>4</v>
+      </c>
+      <c r="G29" s="110">
+        <v>103</v>
+      </c>
+      <c r="H29" s="110" t="s">
+        <v>80</v>
+      </c>
+      <c r="I29" s="110" t="s">
+        <v>75</v>
+      </c>
+      <c r="J29" s="110" t="s">
+        <v>76</v>
+      </c>
+      <c r="K29" s="110" t="s">
+        <v>77</v>
+      </c>
+      <c r="L29" s="114">
+        <v>135520</v>
+      </c>
+      <c r="M29" s="115"/>
+    </row>
+    <row r="30" spans="1:13" ht="20.399999999999999">
+      <c r="A30" s="72" t="s">
+        <v>644</v>
+      </c>
+      <c r="B30" s="73" t="s">
+        <v>255</v>
+      </c>
+      <c r="C30" s="73" t="s">
+        <v>217</v>
+      </c>
+      <c r="D30" s="75" t="s">
+        <v>336</v>
+      </c>
+      <c r="E30" s="73" t="s">
+        <v>252</v>
+      </c>
+      <c r="F30" s="73">
+        <v>0</v>
+      </c>
+      <c r="G30" s="73">
+        <v>13</v>
+      </c>
+      <c r="H30" s="73" t="s">
+        <v>74</v>
+      </c>
+      <c r="I30" s="73" t="s">
+        <v>74</v>
+      </c>
+      <c r="J30" s="73" t="s">
+        <v>440</v>
+      </c>
+      <c r="K30" s="73" t="s">
+        <v>77</v>
+      </c>
+      <c r="L30" s="114"/>
+      <c r="M30" s="115"/>
+    </row>
+    <row r="31" spans="1:13" ht="20.399999999999999">
+      <c r="A31" s="109" t="s">
+        <v>645</v>
+      </c>
+      <c r="B31" s="110" t="s">
+        <v>282</v>
+      </c>
+      <c r="C31" s="110" t="s">
+        <v>471</v>
+      </c>
+      <c r="D31" s="112" t="s">
+        <v>472</v>
+      </c>
+      <c r="E31" s="110" t="s">
+        <v>473</v>
+      </c>
+      <c r="F31" s="110">
+        <v>5</v>
+      </c>
+      <c r="G31" s="110">
+        <v>134</v>
+      </c>
+      <c r="H31" s="110" t="s">
+        <v>80</v>
+      </c>
+      <c r="I31" s="110" t="s">
+        <v>75</v>
+      </c>
+      <c r="J31" s="110" t="s">
+        <v>76</v>
+      </c>
+      <c r="K31" s="110" t="s">
+        <v>77</v>
+      </c>
+      <c r="L31" s="113">
+        <v>105272</v>
+      </c>
+      <c r="M31" s="111"/>
+    </row>
+    <row r="32" spans="1:13" ht="30.6">
+      <c r="A32" s="72" t="s">
+        <v>646</v>
+      </c>
+      <c r="B32" s="73" t="s">
+        <v>294</v>
+      </c>
+      <c r="C32" s="73" t="s">
+        <v>298</v>
+      </c>
+      <c r="D32" s="75" t="s">
+        <v>647</v>
+      </c>
+      <c r="E32" s="73" t="s">
+        <v>648</v>
+      </c>
+      <c r="F32" s="73">
+        <v>2</v>
+      </c>
+      <c r="G32" s="73">
+        <v>65</v>
+      </c>
+      <c r="H32" s="73" t="s">
+        <v>74</v>
+      </c>
+      <c r="I32" s="73" t="s">
+        <v>101</v>
+      </c>
+      <c r="J32" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="K32" s="73" t="s">
+        <v>77</v>
+      </c>
+      <c r="L32" s="76">
+        <v>92625</v>
+      </c>
+      <c r="M32" s="71"/>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" t="s">
+        <v>608</v>
+      </c>
+      <c r="B36" t="s">
+        <v>255</v>
+      </c>
+      <c r="C36" t="s">
+        <v>217</v>
+      </c>
+      <c r="D36" t="s">
+        <v>609</v>
+      </c>
+      <c r="E36" t="s">
+        <v>107</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36">
+        <v>57</v>
+      </c>
+      <c r="H36" t="s">
+        <v>74</v>
+      </c>
+      <c r="I36" t="s">
+        <v>101</v>
+      </c>
+      <c r="J36" t="s">
+        <v>76</v>
+      </c>
+      <c r="K36" t="s">
+        <v>77</v>
+      </c>
+      <c r="L36" s="22">
+        <v>78247</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" t="s">
+        <v>610</v>
+      </c>
+      <c r="B37" t="s">
+        <v>255</v>
+      </c>
+      <c r="C37" t="s">
+        <v>217</v>
+      </c>
+      <c r="D37" t="s">
+        <v>94</v>
+      </c>
+      <c r="E37" t="s">
+        <v>611</v>
+      </c>
+      <c r="F37">
+        <v>3</v>
+      </c>
+      <c r="G37">
+        <v>79</v>
+      </c>
+      <c r="H37" t="s">
+        <v>80</v>
+      </c>
+      <c r="I37" t="s">
+        <v>75</v>
+      </c>
+      <c r="J37" t="s">
+        <v>76</v>
+      </c>
+      <c r="K37" t="s">
+        <v>77</v>
+      </c>
+      <c r="L37" s="22">
+        <v>108823</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" t="s">
+        <v>612</v>
+      </c>
+      <c r="B38" t="s">
+        <v>255</v>
+      </c>
+      <c r="C38" t="s">
+        <v>217</v>
+      </c>
+      <c r="D38" t="s">
+        <v>96</v>
+      </c>
+      <c r="E38" t="s">
+        <v>613</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+      <c r="G38">
+        <v>72</v>
+      </c>
+      <c r="H38" t="s">
+        <v>74</v>
+      </c>
+      <c r="I38" t="s">
+        <v>75</v>
+      </c>
+      <c r="J38" t="s">
+        <v>76</v>
+      </c>
+      <c r="K38" t="s">
+        <v>77</v>
+      </c>
+      <c r="L38" s="22">
+        <v>83520</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" t="s">
+        <v>614</v>
+      </c>
+      <c r="B39" t="s">
+        <v>225</v>
+      </c>
+      <c r="C39" t="s">
+        <v>217</v>
+      </c>
+      <c r="D39" t="s">
+        <v>615</v>
+      </c>
+      <c r="E39" t="s">
+        <v>616</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39">
+        <v>52</v>
+      </c>
+      <c r="H39" t="s">
+        <v>74</v>
+      </c>
+      <c r="I39" t="s">
+        <v>101</v>
+      </c>
+      <c r="J39" t="s">
+        <v>76</v>
+      </c>
+      <c r="K39" t="s">
+        <v>77</v>
+      </c>
+      <c r="L39" s="22">
+        <v>76570</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" t="s">
+        <v>617</v>
+      </c>
+      <c r="B40" t="s">
+        <v>225</v>
+      </c>
+      <c r="C40" t="s">
+        <v>217</v>
+      </c>
+      <c r="D40" t="s">
+        <v>618</v>
+      </c>
+      <c r="E40" t="s">
+        <v>363</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+      <c r="G40">
+        <v>67</v>
+      </c>
+      <c r="H40" t="s">
+        <v>80</v>
+      </c>
+      <c r="I40" t="s">
+        <v>75</v>
+      </c>
+      <c r="J40" t="s">
+        <v>76</v>
+      </c>
+      <c r="K40" t="s">
+        <v>77</v>
+      </c>
+      <c r="L40" s="22">
+        <v>98658</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" t="s">
+        <v>619</v>
+      </c>
+      <c r="B41" t="s">
+        <v>225</v>
+      </c>
+      <c r="C41" t="s">
+        <v>217</v>
+      </c>
+      <c r="D41" t="s">
+        <v>373</v>
+      </c>
+      <c r="E41" t="s">
+        <v>89</v>
+      </c>
+      <c r="F41">
+        <v>2</v>
+      </c>
+      <c r="G41">
+        <v>70</v>
+      </c>
+      <c r="H41" t="s">
+        <v>80</v>
+      </c>
+      <c r="I41" t="s">
+        <v>75</v>
+      </c>
+      <c r="J41" t="s">
+        <v>76</v>
+      </c>
+      <c r="K41" t="s">
+        <v>77</v>
+      </c>
+      <c r="L41" s="22">
+        <v>93100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" t="s">
+        <v>620</v>
+      </c>
+      <c r="B42" t="s">
+        <v>255</v>
+      </c>
+      <c r="C42" t="s">
+        <v>217</v>
+      </c>
+      <c r="D42" t="s">
+        <v>110</v>
+      </c>
+      <c r="E42" t="s">
+        <v>292</v>
+      </c>
+      <c r="F42">
+        <v>3</v>
+      </c>
+      <c r="G42">
+        <v>87</v>
+      </c>
+      <c r="H42" t="s">
+        <v>80</v>
+      </c>
+      <c r="I42" t="s">
+        <v>101</v>
+      </c>
+      <c r="J42" t="s">
+        <v>76</v>
+      </c>
+      <c r="K42" t="s">
+        <v>77</v>
+      </c>
+      <c r="L42" s="22">
+        <v>119843</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" t="s">
+        <v>621</v>
+      </c>
+      <c r="B43" t="s">
+        <v>225</v>
+      </c>
+      <c r="C43" t="s">
+        <v>217</v>
+      </c>
+      <c r="D43" t="s">
+        <v>622</v>
+      </c>
+      <c r="E43" t="s">
+        <v>623</v>
+      </c>
+      <c r="F43">
+        <v>2</v>
+      </c>
+      <c r="G43">
+        <v>67</v>
+      </c>
+      <c r="H43" t="s">
+        <v>80</v>
+      </c>
+      <c r="I43" t="s">
+        <v>75</v>
+      </c>
+      <c r="J43" t="s">
+        <v>76</v>
+      </c>
+      <c r="K43" t="s">
+        <v>77</v>
+      </c>
+      <c r="L43" s="22">
+        <v>100249</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" t="s">
+        <v>624</v>
+      </c>
+      <c r="B44" t="s">
+        <v>225</v>
+      </c>
+      <c r="C44" t="s">
+        <v>217</v>
+      </c>
+      <c r="D44" t="s">
+        <v>121</v>
+      </c>
+      <c r="E44" t="s">
+        <v>625</v>
+      </c>
+      <c r="F44">
+        <v>3</v>
+      </c>
+      <c r="G44">
+        <v>89</v>
+      </c>
+      <c r="H44" t="s">
+        <v>80</v>
+      </c>
+      <c r="I44" t="s">
+        <v>146</v>
+      </c>
+      <c r="J44" t="s">
+        <v>76</v>
+      </c>
+      <c r="K44" t="s">
+        <v>77</v>
+      </c>
+      <c r="L44" s="22">
+        <v>110360</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" t="s">
+        <v>626</v>
+      </c>
+      <c r="B45" t="s">
+        <v>282</v>
+      </c>
+      <c r="C45" t="s">
+        <v>283</v>
+      </c>
+      <c r="D45" t="s">
+        <v>284</v>
+      </c>
+      <c r="E45" t="s">
+        <v>87</v>
+      </c>
+      <c r="F45">
+        <v>3</v>
+      </c>
+      <c r="G45">
+        <v>83</v>
+      </c>
+      <c r="H45" t="s">
+        <v>80</v>
+      </c>
+      <c r="I45" t="s">
+        <v>101</v>
+      </c>
+      <c r="J45" t="s">
+        <v>76</v>
+      </c>
+      <c r="K45" t="s">
+        <v>77</v>
+      </c>
+      <c r="L45" s="22">
+        <v>106448</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" t="s">
+        <v>627</v>
+      </c>
+      <c r="B46" t="s">
+        <v>282</v>
+      </c>
+      <c r="C46" t="s">
+        <v>283</v>
+      </c>
+      <c r="D46" t="s">
+        <v>385</v>
+      </c>
+      <c r="E46" t="s">
+        <v>125</v>
+      </c>
+      <c r="F46">
+        <v>3</v>
+      </c>
+      <c r="G46">
+        <v>90</v>
+      </c>
+      <c r="H46" t="s">
+        <v>80</v>
+      </c>
+      <c r="I46" t="s">
+        <v>75</v>
+      </c>
+      <c r="J46" t="s">
+        <v>76</v>
+      </c>
+      <c r="K46" t="s">
+        <v>77</v>
+      </c>
+      <c r="L46" s="22">
+        <v>97200</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" t="s">
+        <v>628</v>
+      </c>
+      <c r="B47" t="s">
+        <v>225</v>
+      </c>
+      <c r="C47" t="s">
+        <v>217</v>
+      </c>
+      <c r="D47" t="s">
+        <v>629</v>
+      </c>
+      <c r="E47" t="s">
+        <v>103</v>
+      </c>
+      <c r="F47">
+        <v>2</v>
+      </c>
+      <c r="G47">
+        <v>62</v>
+      </c>
+      <c r="H47" t="s">
+        <v>80</v>
+      </c>
+      <c r="I47" t="s">
+        <v>101</v>
+      </c>
+      <c r="J47" t="s">
+        <v>76</v>
+      </c>
+      <c r="K47" t="s">
+        <v>77</v>
+      </c>
+      <c r="L47" s="22">
+        <v>92768</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" t="s">
+        <v>630</v>
+      </c>
+      <c r="B48" t="s">
+        <v>282</v>
+      </c>
+      <c r="C48" t="s">
+        <v>306</v>
+      </c>
+      <c r="D48" t="s">
+        <v>395</v>
+      </c>
+      <c r="E48" t="s">
+        <v>398</v>
+      </c>
+      <c r="F48">
+        <v>2</v>
+      </c>
+      <c r="G48">
+        <v>70</v>
+      </c>
+      <c r="H48" t="s">
+        <v>74</v>
+      </c>
+      <c r="I48" t="s">
+        <v>101</v>
+      </c>
+      <c r="J48" t="s">
+        <v>76</v>
+      </c>
+      <c r="K48" t="s">
+        <v>77</v>
+      </c>
+      <c r="L48" s="22">
+        <v>49087</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" t="s">
+        <v>631</v>
+      </c>
+      <c r="B49" t="s">
+        <v>282</v>
+      </c>
+      <c r="C49" t="s">
+        <v>306</v>
+      </c>
+      <c r="D49" t="s">
+        <v>400</v>
+      </c>
+      <c r="E49" t="s">
+        <v>363</v>
+      </c>
+      <c r="F49">
+        <v>2</v>
+      </c>
+      <c r="G49">
+        <v>57</v>
+      </c>
+      <c r="H49" t="s">
+        <v>74</v>
+      </c>
+      <c r="I49" t="s">
+        <v>146</v>
+      </c>
+      <c r="J49" t="s">
+        <v>76</v>
+      </c>
+      <c r="K49" t="s">
+        <v>77</v>
+      </c>
+      <c r="L49" s="22">
+        <v>39971</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" t="s">
+        <v>632</v>
+      </c>
+      <c r="B50" t="s">
+        <v>282</v>
+      </c>
+      <c r="C50" t="s">
+        <v>306</v>
+      </c>
+      <c r="D50" t="s">
+        <v>307</v>
+      </c>
+      <c r="E50" t="s">
+        <v>113</v>
+      </c>
+      <c r="F50">
+        <v>4</v>
+      </c>
+      <c r="G50">
+        <v>107</v>
+      </c>
+      <c r="H50" t="s">
+        <v>80</v>
+      </c>
+      <c r="I50" t="s">
+        <v>146</v>
+      </c>
+      <c r="J50" t="s">
+        <v>76</v>
+      </c>
+      <c r="K50" t="s">
+        <v>77</v>
+      </c>
+      <c r="L50" s="22">
+        <v>76739</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" t="s">
+        <v>633</v>
+      </c>
+      <c r="B51" t="s">
+        <v>282</v>
+      </c>
+      <c r="C51" t="s">
+        <v>306</v>
+      </c>
+      <c r="D51" t="s">
+        <v>455</v>
+      </c>
+      <c r="E51" t="s">
+        <v>263</v>
+      </c>
+      <c r="F51">
+        <v>4</v>
+      </c>
+      <c r="G51">
+        <v>102</v>
+      </c>
+      <c r="H51" t="s">
+        <v>80</v>
+      </c>
+      <c r="I51" t="s">
+        <v>101</v>
+      </c>
+      <c r="J51" t="s">
+        <v>76</v>
+      </c>
+      <c r="K51" t="s">
+        <v>77</v>
+      </c>
+      <c r="L51" s="22">
+        <v>60083</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" t="s">
+        <v>634</v>
+      </c>
+      <c r="B52" t="s">
+        <v>225</v>
+      </c>
+      <c r="C52" t="s">
+        <v>217</v>
+      </c>
+      <c r="D52" t="s">
+        <v>635</v>
+      </c>
+      <c r="E52" t="s">
+        <v>145</v>
+      </c>
+      <c r="F52">
+        <v>4</v>
+      </c>
+      <c r="G52">
+        <v>101</v>
+      </c>
+      <c r="H52" t="s">
+        <v>80</v>
+      </c>
+      <c r="I52" t="s">
+        <v>75</v>
+      </c>
+      <c r="J52" t="s">
+        <v>76</v>
+      </c>
+      <c r="K52" t="s">
+        <v>77</v>
+      </c>
+      <c r="L52" s="22">
+        <v>115519</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" t="s">
+        <v>636</v>
+      </c>
+      <c r="B53" t="s">
+        <v>282</v>
+      </c>
+      <c r="C53" t="s">
+        <v>306</v>
+      </c>
+      <c r="D53" t="s">
+        <v>455</v>
+      </c>
+      <c r="E53" t="s">
+        <v>148</v>
+      </c>
+      <c r="F53">
+        <v>4</v>
+      </c>
+      <c r="G53">
+        <v>122</v>
+      </c>
+      <c r="H53" t="s">
+        <v>80</v>
+      </c>
+      <c r="I53" t="s">
+        <v>75</v>
+      </c>
+      <c r="J53" t="s">
+        <v>76</v>
+      </c>
+      <c r="K53" t="s">
+        <v>77</v>
+      </c>
+      <c r="L53" s="22">
+        <v>76997</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" t="s">
+        <v>637</v>
+      </c>
+      <c r="B54" t="s">
+        <v>294</v>
+      </c>
+      <c r="C54" t="s">
+        <v>324</v>
+      </c>
+      <c r="D54" t="s">
+        <v>325</v>
+      </c>
+      <c r="E54" t="s">
+        <v>326</v>
+      </c>
+      <c r="F54">
+        <v>5</v>
+      </c>
+      <c r="G54">
+        <v>139</v>
+      </c>
+      <c r="H54" t="s">
+        <v>80</v>
+      </c>
+      <c r="I54" t="s">
+        <v>99</v>
+      </c>
+      <c r="J54" t="s">
+        <v>76</v>
+      </c>
+      <c r="K54" t="s">
+        <v>77</v>
+      </c>
+      <c r="L54" s="22">
+        <v>106069</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" t="s">
+        <v>638</v>
+      </c>
+      <c r="B55" t="s">
+        <v>294</v>
+      </c>
+      <c r="C55" t="s">
+        <v>324</v>
+      </c>
+      <c r="D55" t="s">
+        <v>325</v>
+      </c>
+      <c r="E55" t="s">
+        <v>326</v>
+      </c>
+      <c r="F55">
+        <v>4</v>
+      </c>
+      <c r="G55">
+        <v>114</v>
+      </c>
+      <c r="H55" t="s">
+        <v>80</v>
+      </c>
+      <c r="I55" t="s">
+        <v>99</v>
+      </c>
+      <c r="J55" t="s">
+        <v>76</v>
+      </c>
+      <c r="K55" t="s">
+        <v>77</v>
+      </c>
+      <c r="L55" s="22">
+        <v>100776</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" t="s">
+        <v>639</v>
+      </c>
+      <c r="B56" t="s">
+        <v>294</v>
+      </c>
+      <c r="C56" t="s">
+        <v>324</v>
+      </c>
+      <c r="D56" t="s">
+        <v>325</v>
+      </c>
+      <c r="E56" t="s">
+        <v>326</v>
+      </c>
+      <c r="F56">
+        <v>4</v>
+      </c>
+      <c r="G56">
+        <v>114</v>
+      </c>
+      <c r="H56" t="s">
+        <v>80</v>
+      </c>
+      <c r="I56" t="s">
+        <v>109</v>
+      </c>
+      <c r="J56" t="s">
+        <v>76</v>
+      </c>
+      <c r="K56" t="s">
+        <v>77</v>
+      </c>
+      <c r="L56" s="22">
+        <v>100776</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" t="s">
+        <v>640</v>
+      </c>
+      <c r="B57" t="s">
+        <v>225</v>
+      </c>
+      <c r="C57" t="s">
+        <v>217</v>
+      </c>
+      <c r="D57" t="s">
+        <v>641</v>
+      </c>
+      <c r="E57" t="s">
+        <v>369</v>
+      </c>
+      <c r="F57">
+        <v>4</v>
+      </c>
+      <c r="G57">
+        <v>102</v>
+      </c>
+      <c r="H57" t="s">
+        <v>80</v>
+      </c>
+      <c r="I57" t="s">
+        <v>99</v>
+      </c>
+      <c r="J57" t="s">
+        <v>76</v>
+      </c>
+      <c r="K57" t="s">
+        <v>77</v>
+      </c>
+      <c r="L57" s="22">
+        <v>173049</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" t="s">
+        <v>640</v>
+      </c>
+      <c r="B58" t="s">
+        <v>225</v>
+      </c>
+      <c r="C58" t="s">
+        <v>217</v>
+      </c>
+      <c r="D58" t="s">
+        <v>641</v>
+      </c>
+      <c r="E58" t="s">
+        <v>369</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>14</v>
+      </c>
+      <c r="H58" t="s">
+        <v>74</v>
+      </c>
+      <c r="I58" t="s">
+        <v>74</v>
+      </c>
+      <c r="J58" t="s">
+        <v>440</v>
+      </c>
+      <c r="K58" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" t="s">
+        <v>642</v>
+      </c>
+      <c r="B59" t="s">
+        <v>255</v>
+      </c>
+      <c r="C59" t="s">
+        <v>217</v>
+      </c>
+      <c r="D59" t="s">
+        <v>468</v>
+      </c>
+      <c r="E59" t="s">
+        <v>326</v>
+      </c>
+      <c r="F59">
+        <v>4</v>
+      </c>
+      <c r="G59">
+        <v>119</v>
+      </c>
+      <c r="H59" t="s">
+        <v>80</v>
+      </c>
+      <c r="I59" t="s">
+        <v>75</v>
+      </c>
+      <c r="J59" t="s">
+        <v>76</v>
+      </c>
+      <c r="K59" t="s">
+        <v>77</v>
+      </c>
+      <c r="L59" s="22">
+        <v>155360</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" t="s">
+        <v>642</v>
+      </c>
+      <c r="B60" t="s">
+        <v>255</v>
+      </c>
+      <c r="C60" t="s">
+        <v>217</v>
+      </c>
+      <c r="D60" t="s">
+        <v>468</v>
+      </c>
+      <c r="E60" t="s">
+        <v>326</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>14</v>
+      </c>
+      <c r="H60" t="s">
+        <v>74</v>
+      </c>
+      <c r="I60" t="s">
+        <v>74</v>
+      </c>
+      <c r="J60" t="s">
+        <v>440</v>
+      </c>
+      <c r="K60" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" t="s">
+        <v>643</v>
+      </c>
+      <c r="B61" t="s">
+        <v>255</v>
+      </c>
+      <c r="C61" t="s">
+        <v>217</v>
+      </c>
+      <c r="D61" t="s">
+        <v>336</v>
+      </c>
+      <c r="E61" t="s">
+        <v>111</v>
+      </c>
+      <c r="F61">
+        <v>4</v>
+      </c>
+      <c r="G61">
+        <v>98</v>
+      </c>
+      <c r="H61" t="s">
+        <v>80</v>
+      </c>
+      <c r="I61" t="s">
+        <v>75</v>
+      </c>
+      <c r="J61" t="s">
+        <v>76</v>
+      </c>
+      <c r="K61" t="s">
+        <v>77</v>
+      </c>
+      <c r="L61" s="22">
+        <v>130520</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" t="s">
+        <v>643</v>
+      </c>
+      <c r="B62" t="s">
+        <v>255</v>
+      </c>
+      <c r="C62" t="s">
+        <v>217</v>
+      </c>
+      <c r="D62" t="s">
+        <v>336</v>
+      </c>
+      <c r="E62" t="s">
+        <v>111</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>15</v>
+      </c>
+      <c r="H62" t="s">
+        <v>74</v>
+      </c>
+      <c r="I62" t="s">
+        <v>74</v>
+      </c>
+      <c r="J62" t="s">
+        <v>440</v>
+      </c>
+      <c r="K62" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" t="s">
+        <v>644</v>
+      </c>
+      <c r="B63" t="s">
+        <v>255</v>
+      </c>
+      <c r="C63" t="s">
+        <v>217</v>
+      </c>
+      <c r="D63" t="s">
+        <v>336</v>
+      </c>
+      <c r="E63" t="s">
+        <v>252</v>
+      </c>
+      <c r="F63">
+        <v>4</v>
+      </c>
+      <c r="G63">
+        <v>103</v>
+      </c>
+      <c r="H63" t="s">
+        <v>80</v>
+      </c>
+      <c r="I63" t="s">
+        <v>75</v>
+      </c>
+      <c r="J63" t="s">
+        <v>76</v>
+      </c>
+      <c r="K63" t="s">
+        <v>77</v>
+      </c>
+      <c r="L63" s="22">
+        <v>135520</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64" t="s">
+        <v>644</v>
+      </c>
+      <c r="B64" t="s">
+        <v>255</v>
+      </c>
+      <c r="C64" t="s">
+        <v>217</v>
+      </c>
+      <c r="D64" t="s">
+        <v>336</v>
+      </c>
+      <c r="E64" t="s">
+        <v>252</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>13</v>
+      </c>
+      <c r="H64" t="s">
+        <v>74</v>
+      </c>
+      <c r="I64" t="s">
+        <v>74</v>
+      </c>
+      <c r="J64" t="s">
+        <v>440</v>
+      </c>
+      <c r="K64" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65" t="s">
+        <v>645</v>
+      </c>
+      <c r="B65" t="s">
+        <v>282</v>
+      </c>
+      <c r="C65" t="s">
+        <v>471</v>
+      </c>
+      <c r="D65" t="s">
+        <v>472</v>
+      </c>
+      <c r="E65" t="s">
+        <v>473</v>
+      </c>
+      <c r="F65">
+        <v>5</v>
+      </c>
+      <c r="G65">
+        <v>134</v>
+      </c>
+      <c r="H65" t="s">
+        <v>80</v>
+      </c>
+      <c r="I65" t="s">
+        <v>75</v>
+      </c>
+      <c r="J65" t="s">
+        <v>76</v>
+      </c>
+      <c r="K65" t="s">
+        <v>77</v>
+      </c>
+      <c r="L65" s="22">
+        <v>105272</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66" t="s">
+        <v>646</v>
+      </c>
+      <c r="B66" t="s">
+        <v>294</v>
+      </c>
+      <c r="C66" t="s">
+        <v>298</v>
+      </c>
+      <c r="D66" t="s">
+        <v>647</v>
+      </c>
+      <c r="E66" t="s">
+        <v>648</v>
+      </c>
+      <c r="F66">
+        <v>2</v>
+      </c>
+      <c r="G66">
+        <v>65</v>
+      </c>
+      <c r="H66" t="s">
+        <v>74</v>
+      </c>
+      <c r="I66" t="s">
+        <v>101</v>
+      </c>
+      <c r="J66" t="s">
+        <v>76</v>
+      </c>
+      <c r="K66" t="s">
+        <v>77</v>
+      </c>
+      <c r="L66" s="22">
+        <v>92625</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="M27:M28"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" display="https://alermipianovendite.it/downloads/CEAL/asta6aprile2023/planimetrie/027-23.pdf" xr:uid="{0F4E7198-B668-4EEB-80CA-F98C5458D4D1}"/>
+    <hyperlink ref="D3" r:id="rId2" display="https://alermipianovendite.it/downloads/CEAL/asta6aprile2023/planimetrie/028-23.pdf" xr:uid="{453BF832-46D0-4528-A60D-E504DD60A610}"/>
+    <hyperlink ref="D4" r:id="rId3" display="https://alermipianovendite.it/downloads/CEAL/asta6aprile2023/planimetrie/029-23.pdf" xr:uid="{D8A62CDD-5932-407C-914C-EF56E78AB29B}"/>
+    <hyperlink ref="D5" r:id="rId4" display="https://alermipianovendite.it/downloads/CEAL/asta6aprile2023/planimetrie/030-23.pdf" xr:uid="{95EF8584-22AC-4E3F-A269-0FC16A61FA31}"/>
+    <hyperlink ref="D6" r:id="rId5" display="https://alermipianovendite.it/downloads/CEAL/asta6aprile2023/planimetrie/031-23.pdf" xr:uid="{EB4D7AA0-C488-48AE-BD77-4AF2AF343CE9}"/>
+    <hyperlink ref="D7" r:id="rId6" display="https://alermipianovendite.it/downloads/CEAL/asta6aprile2023/planimetrie/032-23.pdf" xr:uid="{9C1035BF-28F7-481C-AFA6-58F2BF86D70B}"/>
+    <hyperlink ref="D8" r:id="rId7" display="https://alermipianovendite.it/downloads/CEAL/asta6aprile2023/planimetrie/033-23.pdf" xr:uid="{FC04024B-9E15-483F-89DF-9C51A3CC4168}"/>
+    <hyperlink ref="D9" r:id="rId8" display="https://alermipianovendite.it/downloads/CEAL/asta6aprile2023/planimetrie/034-23.pdf" xr:uid="{22C035B9-7988-437C-B6A8-7B80B53B6EA3}"/>
+    <hyperlink ref="D10" r:id="rId9" display="https://alermipianovendite.it/downloads/CEAL/asta6aprile2023/planimetrie/035-23.pdf" xr:uid="{34EF9975-BFCE-443B-B6BB-8CE548FEB982}"/>
+    <hyperlink ref="D11" r:id="rId10" display="https://alermipianovendite.it/downloads/CEAL/asta6aprile2023/planimetrie/036-23.pdf" xr:uid="{D9CA072F-C47D-4B4D-AC90-DC92D9BD1DF8}"/>
+    <hyperlink ref="D12" r:id="rId11" display="https://alermipianovendite.it/downloads/CEAL/asta6aprile2023/planimetrie/037-23.pdf" xr:uid="{028AB9AF-54F5-4EA8-8D94-59407CEB38B4}"/>
+    <hyperlink ref="D13" r:id="rId12" display="https://alermipianovendite.it/downloads/CEAL/asta6aprile2023/planimetrie/038-23.pdf" xr:uid="{DAD0DBC3-1832-49D6-AEBC-F11AA0F4E2CD}"/>
+    <hyperlink ref="D14" r:id="rId13" display="https://alermipianovendite.it/downloads/CEAL/asta6aprile2023/planimetrie/039-23.pdf" xr:uid="{71974432-962E-474F-9FCF-F59372221677}"/>
+    <hyperlink ref="D15" r:id="rId14" display="https://alermipianovendite.it/downloads/CEAL/asta6aprile2023/planimetrie/040-23.pdf" xr:uid="{23FAD3F5-062D-455C-8B57-995B6E02B602}"/>
+    <hyperlink ref="D16" r:id="rId15" display="https://alermipianovendite.it/downloads/CEAL/asta6aprile2023/planimetrie/041-23.pdf" xr:uid="{C26099D4-B0BF-4E72-8A55-CA88926F796D}"/>
+    <hyperlink ref="D17" r:id="rId16" display="https://alermipianovendite.it/downloads/CEAL/asta6aprile2023/planimetrie/042-23.pdf" xr:uid="{1548C64B-287A-4CFC-8781-94C5AD53A478}"/>
+    <hyperlink ref="D18" r:id="rId17" display="https://alermipianovendite.it/downloads/CEAL/asta6aprile2023/planimetrie/043-23.pdf" xr:uid="{3ACE9580-0587-449E-9C50-84AA17DF7B93}"/>
+    <hyperlink ref="D19" r:id="rId18" display="https://alermipianovendite.it/downloads/CEAL/asta6aprile2023/planimetrie/044-23.pdf" xr:uid="{DA34D8C3-0ACA-41FB-AE5D-8AAC6932A885}"/>
+    <hyperlink ref="D20" r:id="rId19" display="https://alermipianovendite.it/downloads/CEAL/asta6aprile2023/planimetrie/045-23.pdf" xr:uid="{9EB07AC1-0B39-4588-86C4-E0E125647FA1}"/>
+    <hyperlink ref="D21" r:id="rId20" display="https://alermipianovendite.it/downloads/CEAL/asta6aprile2023/planimetrie/046-23.pdf" xr:uid="{136B5DEC-2160-4843-938A-AE814887C983}"/>
+    <hyperlink ref="D22" r:id="rId21" display="https://alermipianovendite.it/downloads/CEAL/asta6aprile2023/planimetrie/047-23.pdf" xr:uid="{ABA49033-CE58-445C-A37C-901B4164A514}"/>
+    <hyperlink ref="D23" r:id="rId22" display="https://alermipianovendite.it/downloads/CEAL/asta6aprile2023/planimetrie/048-23_all.pdf" xr:uid="{DD8C98E4-0080-43BB-89EB-9B04A09A7A16}"/>
+    <hyperlink ref="D24" r:id="rId23" display="https://alermipianovendite.it/downloads/CEAL/asta6aprile2023/planimetrie/048-23_box.pdf" xr:uid="{D3B565A7-20CF-4E85-BC74-4D21310E75D4}"/>
+    <hyperlink ref="D25" r:id="rId24" display="https://alermipianovendite.it/downloads/CEAL/asta6aprile2023/planimetrie/049-23_all.pdf" xr:uid="{B63EA067-5227-4C88-9850-7855CCACEDC3}"/>
+    <hyperlink ref="D26" r:id="rId25" display="https://alermipianovendite.it/downloads/CEAL/asta6aprile2023/planimetrie/049-23_box.pdf" xr:uid="{2210E3A3-2C76-4EB2-9653-339EB3308F95}"/>
+    <hyperlink ref="D27" r:id="rId26" display="https://alermipianovendite.it/downloads/CEAL/asta6aprile2023/planimetrie/050-23_all.pdf" xr:uid="{7FF9F059-F88D-4FD6-9C2E-A18FAECCF3BF}"/>
+    <hyperlink ref="D28" r:id="rId27" display="https://alermipianovendite.it/downloads/CEAL/asta6aprile2023/planimetrie/050-23_box.pdf" xr:uid="{D2970C6E-DCFF-442D-A855-6D1693781199}"/>
+    <hyperlink ref="D29" r:id="rId28" display="https://alermipianovendite.it/downloads/CEAL/asta6aprile2023/planimetrie/051-23_all.pdf" xr:uid="{6C7F12DE-F131-4D29-AF09-6ECF330D262E}"/>
+    <hyperlink ref="D30" r:id="rId29" display="https://alermipianovendite.it/downloads/CEAL/asta6aprile2023/planimetrie/051-23_box.pdf" xr:uid="{88E860FC-1EF7-49D9-937C-3F84299C5B35}"/>
+    <hyperlink ref="D31" r:id="rId30" display="https://alermipianovendite.it/downloads/CEAL/asta6aprile2023/planimetrie/052-23.pdf" xr:uid="{5A11ECB3-D03E-4638-BF1B-54A471924860}"/>
+    <hyperlink ref="D32" r:id="rId31" display="https://alermipianovendite.it/downloads/CEAL/asta6aprile2023/planimetrie/053-23.pdf" xr:uid="{79D8C13E-A207-4207-A62B-6C8A23EBD9E0}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId32"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{417B1B38-680B-4DC5-B256-6260A521B3B1}">
-  <dimension ref="A1:F86"/>
+  <dimension ref="A1:J96"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61:F86"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A88" sqref="A88:J96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -38981,7 +43501,8 @@
     <col min="4" max="4" width="5" customWidth="1"/>
     <col min="5" max="5" width="16.44140625" customWidth="1"/>
     <col min="6" max="6" width="15.109375" customWidth="1"/>
-    <col min="8" max="8" width="38.44140625" customWidth="1"/>
+    <col min="7" max="7" width="4.33203125" customWidth="1"/>
+    <col min="8" max="8" width="4.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -40066,7 +44587,7 @@
         <v>120550</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:10">
       <c r="A81" t="s">
         <v>48</v>
       </c>
@@ -40080,7 +44601,7 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:10">
       <c r="A82" t="s">
         <v>48</v>
       </c>
@@ -40094,7 +44615,7 @@
         <v>95889</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:10">
       <c r="A83" t="s">
         <v>43</v>
       </c>
@@ -40108,7 +44629,7 @@
         <v>181000</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:10">
       <c r="A84" t="s">
         <v>24</v>
       </c>
@@ -40122,7 +44643,7 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:10">
       <c r="A85" t="s">
         <v>24</v>
       </c>
@@ -40136,7 +44657,7 @@
         <v>140500</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:10">
       <c r="A86" t="s">
         <v>24</v>
       </c>
@@ -40148,6 +44669,240 @@
       </c>
       <c r="F86" s="90">
         <v>138325</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
+      <c r="A88" t="s">
+        <v>59</v>
+      </c>
+      <c r="B88">
+        <v>14</v>
+      </c>
+      <c r="C88">
+        <v>2.8</v>
+      </c>
+      <c r="D88">
+        <v>24</v>
+      </c>
+      <c r="E88">
+        <v>95608</v>
+      </c>
+      <c r="F88" s="8">
+        <v>317121</v>
+      </c>
+      <c r="I88">
+        <v>64</v>
+      </c>
+      <c r="J88">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
+      <c r="A89" t="s">
+        <v>37</v>
+      </c>
+      <c r="B89">
+        <v>46</v>
+      </c>
+      <c r="C89">
+        <v>5.4</v>
+      </c>
+      <c r="D89">
+        <v>42</v>
+      </c>
+      <c r="E89">
+        <v>90915</v>
+      </c>
+      <c r="F89" s="8">
+        <v>176300</v>
+      </c>
+      <c r="I89">
+        <v>75</v>
+      </c>
+      <c r="J89">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
+      <c r="A90" t="s">
+        <v>37</v>
+      </c>
+      <c r="B90">
+        <v>2</v>
+      </c>
+      <c r="C90">
+        <v>5.4</v>
+      </c>
+      <c r="D90">
+        <v>42</v>
+      </c>
+      <c r="E90">
+        <v>87278</v>
+      </c>
+      <c r="F90" s="8">
+        <v>166784</v>
+      </c>
+      <c r="I90">
+        <v>72</v>
+      </c>
+      <c r="J90">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
+      <c r="A91" t="s">
+        <v>531</v>
+      </c>
+      <c r="B91">
+        <v>2</v>
+      </c>
+      <c r="C91">
+        <v>7.7</v>
+      </c>
+      <c r="D91">
+        <v>32</v>
+      </c>
+      <c r="E91">
+        <v>85120</v>
+      </c>
+      <c r="F91" s="8">
+        <v>133770</v>
+      </c>
+      <c r="I91">
+        <v>76</v>
+      </c>
+      <c r="J91">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
+      <c r="A92" t="s">
+        <v>515</v>
+      </c>
+      <c r="B92">
+        <v>5</v>
+      </c>
+      <c r="C92">
+        <v>9.5</v>
+      </c>
+      <c r="D92">
+        <v>38</v>
+      </c>
+      <c r="E92">
+        <v>94613</v>
+      </c>
+      <c r="F92" s="8">
+        <v>161200</v>
+      </c>
+      <c r="I92">
+        <v>87</v>
+      </c>
+      <c r="J92">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
+      <c r="A93" t="s">
+        <v>649</v>
+      </c>
+      <c r="B93">
+        <v>69</v>
+      </c>
+      <c r="C93">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="D93">
+        <v>46</v>
+      </c>
+      <c r="E93">
+        <v>99680</v>
+      </c>
+      <c r="F93" s="8">
+        <v>172000</v>
+      </c>
+      <c r="I93">
+        <v>89</v>
+      </c>
+      <c r="J93">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
+      <c r="A94" t="s">
+        <v>64</v>
+      </c>
+      <c r="B94">
+        <v>24</v>
+      </c>
+      <c r="C94">
+        <v>7.5</v>
+      </c>
+      <c r="D94">
+        <v>39</v>
+      </c>
+      <c r="E94">
+        <v>105280</v>
+      </c>
+      <c r="F94" s="8">
+        <v>201000</v>
+      </c>
+      <c r="I94">
+        <v>94</v>
+      </c>
+      <c r="J94">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
+      <c r="A95" t="s">
+        <v>650</v>
+      </c>
+      <c r="B95">
+        <v>24</v>
+      </c>
+      <c r="C95">
+        <v>7.5</v>
+      </c>
+      <c r="D95">
+        <v>39</v>
+      </c>
+      <c r="E95">
+        <v>103400</v>
+      </c>
+      <c r="F95" s="8">
+        <v>160000</v>
+      </c>
+      <c r="I95">
+        <v>92</v>
+      </c>
+      <c r="J95">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
+      <c r="A96" t="s">
+        <v>56</v>
+      </c>
+      <c r="B96">
+        <v>113</v>
+      </c>
+      <c r="C96">
+        <v>8</v>
+      </c>
+      <c r="D96">
+        <v>39</v>
+      </c>
+      <c r="E96">
+        <v>107880</v>
+      </c>
+      <c r="F96" s="8">
+        <v>175888</v>
+      </c>
+      <c r="I96">
+        <v>87</v>
+      </c>
+      <c r="J96">
+        <v>2100</v>
       </c>
     </row>
   </sheetData>
@@ -40160,12 +44915,12 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.21875" customWidth="1"/>
     <col min="2" max="2" width="8.88671875" customWidth="1"/>
     <col min="4" max="4" width="35.5546875" customWidth="1"/>
     <col min="5" max="5" width="21.44140625" customWidth="1"/>
@@ -40361,8 +45116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EC32201-3596-4F6A-86E8-C093D1FB3CA9}">
   <dimension ref="A3:Q27"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView topLeftCell="H7" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19:O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -69160,10 +73915,10 @@
       <c r="L5" s="78" t="s">
         <v>77</v>
       </c>
-      <c r="M5" s="108">
+      <c r="M5" s="120">
         <v>105180</v>
       </c>
-      <c r="N5" s="110"/>
+      <c r="N5" s="122"/>
     </row>
     <row r="6" spans="2:14" ht="58.2" thickBot="1">
       <c r="B6" s="82" t="s">
@@ -69199,8 +73954,8 @@
       <c r="L6" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="M6" s="109"/>
-      <c r="N6" s="111"/>
+      <c r="M6" s="121"/>
+      <c r="N6" s="123"/>
     </row>
     <row r="7" spans="2:14" ht="43.8" thickBot="1">
       <c r="B7" s="77" t="s">
@@ -69899,10 +74654,10 @@
       <c r="L24" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="M24" s="104">
+      <c r="M24" s="116">
         <v>191653</v>
       </c>
-      <c r="N24" s="106"/>
+      <c r="N24" s="118"/>
     </row>
     <row r="25" spans="2:14" ht="43.8" thickBot="1">
       <c r="B25" s="77" t="s">
@@ -69938,8 +74693,8 @@
       <c r="L25" s="78" t="s">
         <v>77</v>
       </c>
-      <c r="M25" s="105"/>
-      <c r="N25" s="107"/>
+      <c r="M25" s="117"/>
+      <c r="N25" s="119"/>
     </row>
     <row r="26" spans="2:14" ht="29.4" thickBot="1">
       <c r="B26" s="82" t="s">
@@ -69975,10 +74730,10 @@
       <c r="L26" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="M26" s="104">
+      <c r="M26" s="116">
         <v>196203</v>
       </c>
-      <c r="N26" s="106"/>
+      <c r="N26" s="118"/>
     </row>
     <row r="27" spans="2:14" ht="29.4" thickBot="1">
       <c r="B27" s="77" t="s">
@@ -70014,8 +74769,8 @@
       <c r="L27" s="78" t="s">
         <v>77</v>
       </c>
-      <c r="M27" s="105"/>
-      <c r="N27" s="107"/>
+      <c r="M27" s="117"/>
+      <c r="N27" s="119"/>
     </row>
     <row r="28" spans="2:14" ht="29.4" thickBot="1">
       <c r="B28" s="82" t="s">
@@ -70051,10 +74806,10 @@
       <c r="L28" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="M28" s="104">
+      <c r="M28" s="116">
         <v>192133</v>
       </c>
-      <c r="N28" s="106"/>
+      <c r="N28" s="118"/>
     </row>
     <row r="29" spans="2:14" ht="29.4" thickBot="1">
       <c r="B29" s="77" t="s">
@@ -70090,8 +74845,8 @@
       <c r="L29" s="78" t="s">
         <v>77</v>
       </c>
-      <c r="M29" s="105"/>
-      <c r="N29" s="107"/>
+      <c r="M29" s="117"/>
+      <c r="N29" s="119"/>
     </row>
     <row r="30" spans="2:14" ht="72.599999999999994" thickBot="1">
       <c r="B30" s="82" t="s">
